--- a/Splio China_Internal_2013Annualview_.xlsx
+++ b/Splio China_Internal_2013Annualview_.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="820"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Self Appraisal" sheetId="1" r:id="rId1"/>
     <sheet name="Upward Review" sheetId="11" r:id="rId2"/>
     <sheet name="Time table" sheetId="13" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -756,7 +756,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>Name:</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -831,18 +831,6 @@
   <si>
     <t xml:space="preserve">3.     What do you consider to be your major strength and weakness as your position?                                                                              对现在的职位，你觉得你的强项和不足分别是哪些？
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Office Manger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gracy Wu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2011.8.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1040,6 +1028,71 @@
   </si>
   <si>
     <t>Cicy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peng Xiaozhou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2011.9.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 做网易、腾讯、新浪备案。2. 检查邮件发送问题。3. 为客户搭建FTP。4. 为客户修改邮件模板。5. 分析LPD数据。 6. 为欧莱雅写报告(Top 10 &amp; Bottom 10)。7. 翻译ENGAGE。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较满意。 基本能正常完成任务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强项主要是有一定的专业知识，而且对技术方便比较感兴趣，所以比较喜欢目前的工作。不足主要是对邮件发送更底层的知识掌握的还不够多，有时遇到问题有些迷茫。再者，英语水平还需提高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对工作内容比较喜欢，不太喜欢的地方是有时候工作比较琐碎，做一件事的时候经常被其他安排打断。两个人的部门谈不上什么组织架构吧…希望给我们招几个人来。工作环境已经习惯了，没什么喜欢不喜欢的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technical Support</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续在技术上做更多的学习和研究，合理安排每项工作，提高工作效率。
+希望公司能给我们扩大一下规模，有时候真会忙的手足无措，不知道该先做哪件事情。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要还是做技术方面的工作，希望我们能有一个比较强大的技术团队。在做好技术方面工作的基础上，接触一些市场方面的工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Collaboration  and Teamwork </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Communication </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiKang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是手头工作太多，有时候一些事情做的会拖一些。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李康对我的帮助非常大，可以说在整个邮件方面上的知识都是他教给我的，包括EF的使用，邮件发送遇到问题时的解决方案，各个ISP的备案，FTP账户的创建规则等。而且对我平时的各个方面也都比较关心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对工作的管理还是非常好的吧，公司遇到的所有的邮件发送问题基本都是靠李康和王吉解决的，尤其是对国内ISP时遇到的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们遇到的问题都是突发性比较强的，而且只有我们两个人，我觉得现在的管理方式是目前比较好的，如果以后人多了可能会遇到管理上的问题吧。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1277,7 +1330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1349,28 +1402,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1415,23 +1446,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyBorder="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyBorder="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyBorder="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyBorder="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1477,15 +1508,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1496,7 +1518,7 @@
     <xf numFmtId="21" fontId="22" fillId="4" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1529,7 +1551,7 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1541,7 +1563,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1556,7 +1578,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1565,7 +1587,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1940,8 +1962,8 @@
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1962,31 +1984,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:14" ht="42" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>6</v>
+      <c r="B3" s="23" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>20</v>
+      <c r="D3" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1994,22 +2016,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>21</v>
+      <c r="D4" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="24" t="s">
-        <v>44</v>
+      <c r="B5" s="30"/>
+      <c r="C5" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="D5" s="15"/>
     </row>
@@ -2029,15 +2051,15 @@
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="22.5">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2060,12 +2082,12 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="45" customHeight="1">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="2"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -2078,10 +2100,12 @@
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
+      <c r="A10" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="2"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -2094,12 +2118,12 @@
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="45" customHeight="1">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="2"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -2112,10 +2136,12 @@
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
+      <c r="A12" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="2"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -2128,16 +2154,16 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="45" customHeight="1">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -2146,10 +2172,12 @@
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="2"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -2162,12 +2190,12 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" ht="45" customHeight="1">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="2"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -2180,10 +2208,12 @@
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
+      <c r="A16" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="2"/>
       <c r="F16" s="10"/>
       <c r="G16" s="9"/>
@@ -2196,12 +2226,12 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="1:14" ht="45" customHeight="1">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="2"/>
       <c r="F17" s="11"/>
       <c r="G17" s="9"/>
@@ -2214,10 +2244,12 @@
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
+      <c r="A18" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
       <c r="E18" s="2"/>
       <c r="F18" s="11"/>
       <c r="G18" s="9"/>
@@ -2230,12 +2262,12 @@
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14" ht="45" customHeight="1">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="2"/>
       <c r="F19" s="11"/>
       <c r="G19" s="9" t="s">
@@ -2250,10 +2282,12 @@
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="1:14" ht="50.1" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
+      <c r="A20" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="2"/>
       <c r="F20" s="11"/>
       <c r="G20" s="9"/>
@@ -2307,12 +2341,12 @@
     </row>
     <row r="27" spans="1:14" hidden="1">
       <c r="A27" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:14" hidden="1"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
@@ -2329,6 +2363,7 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -2350,8 +2385,8 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2363,268 +2398,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5">
-      <c r="A1" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="27"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>61</v>
+      <c r="A3" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>75</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="52" t="s">
+      <c r="A4" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="50"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="26">
+        <v>5</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="26">
+        <v>5</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+    </row>
+    <row r="7" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="26">
+        <v>5</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+    </row>
+    <row r="8" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A8" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="53"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
-      <c r="A5" s="29" t="s">
+      <c r="B8" s="26">
+        <v>4</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="47"/>
+    </row>
+    <row r="9" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="26">
+        <v>5</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+    </row>
+    <row r="10" spans="1:4" ht="35.1" customHeight="1">
+      <c r="A10" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="29">
-        <v>0</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
-      <c r="A6" s="29" t="s">
+      <c r="B10" s="27">
+        <f>AVERAGE(B5:B9)</f>
+        <v>4.8</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+    </row>
+    <row r="11" spans="1:4" ht="51.75" customHeight="1">
+      <c r="A11" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="29">
-        <v>0</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-    </row>
-    <row r="7" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A7" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="29">
-        <v>0</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-    </row>
-    <row r="8" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A8" s="29" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+    </row>
+    <row r="12" spans="1:4" ht="45" customHeight="1">
+      <c r="A12" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+    </row>
+    <row r="13" spans="1:4" ht="48" customHeight="1">
+      <c r="A13" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="29">
-        <v>0</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-    </row>
-    <row r="9" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A9" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="29">
-        <v>0</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-    </row>
-    <row r="10" spans="1:4" ht="35.1" customHeight="1">
-      <c r="A10" s="29" t="s">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="1:4" ht="41.25" customHeight="1">
+      <c r="A14" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+    </row>
+    <row r="15" spans="1:4" ht="40.5" customHeight="1">
+      <c r="A15" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="30">
-        <f>AVERAGE(B5:B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-    </row>
-    <row r="11" spans="1:4" ht="51.75" customHeight="1">
-      <c r="A11" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-    </row>
-    <row r="12" spans="1:4" ht="45" customHeight="1">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-    </row>
-    <row r="13" spans="1:4" ht="48" customHeight="1">
-      <c r="A13" s="49" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+    </row>
+    <row r="16" spans="1:4" ht="40.5" customHeight="1">
+      <c r="A16" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-    </row>
-    <row r="14" spans="1:4" ht="41.25" customHeight="1">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-    </row>
-    <row r="15" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A15" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-    </row>
-    <row r="16" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="27" t="s">
+      <c r="B18" s="28" t="s">
         <v>58</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>61</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="50"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B20" s="26">
+        <v>0</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="B21" s="26">
+        <v>0</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="26">
+        <v>0</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="53"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="29" t="s">
+      <c r="B23" s="26">
+        <v>0</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="26">
+        <v>0</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="29">
-        <v>0</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="29">
-        <v>0</v>
-      </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="29">
-        <v>0</v>
-      </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="29">
-        <v>0</v>
-      </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="29">
-        <v>0</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="30">
+      <c r="B25" s="27">
         <f>AVERAGE(B20:B24)</f>
         <v>0</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
     </row>
     <row r="26" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A26" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="A26" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
     </row>
     <row r="27" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
     </row>
     <row r="28" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A28" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
+      <c r="A28" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
     </row>
     <row r="29" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
     </row>
     <row r="30" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A30" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="A30" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
     </row>
     <row r="31" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2676,206 +2719,206 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" style="19" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="8.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="23" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="17"/>
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="20"/>
-      <c r="C2" s="21"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="C9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="19"/>
+      <c r="B11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="D11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="19"/>
+      <c r="B13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="22"/>
-      <c r="B11" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="22"/>
-      <c r="B13" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="D15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="B16" s="17"/>
+      <c r="D16" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
